--- a/Test_Systems_Verified/BUS 2 Case E.xlsx
+++ b/Test_Systems_Verified/BUS 2 Case E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenbratvold/Documents/GitHub/RELRAD-software-1/Test_Systems_Verified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C25A73-CD23-4242-854C-0E953FDDBD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF46DA5-D8FF-7F45-A22A-4F56B03349CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="22360" windowHeight="14480" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test_Systems_Verified/BUS 2 Case E.xlsx
+++ b/Test_Systems_Verified/BUS 2 Case E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenbratvold/Documents/GitHub/RELRAD-software-1/Test_Systems_Verified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF46DA5-D8FF-7F45-A22A-4F56B03349CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12C329-53D2-5645-8EA8-88BA8B1E4899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="22360" windowHeight="14480" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
